--- a/Data_processed/industry/agriculture.xlsx
+++ b/Data_processed/industry/agriculture.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/agriculture.xlsx
+++ b/Data_processed/industry/agriculture.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/agriculture.xlsx
+++ b/Data_processed/industry/agriculture.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.0479725477</v>
+        <v>15.91110866666667</v>
       </c>
       <c r="E2" t="n">
-        <v>15.91110866666667</v>
+        <v>115.5936</v>
       </c>
       <c r="F2" t="n">
-        <v>115.5936</v>
+        <v>0.00044364392</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.0385880785197</v>
+        <v>17.96724533333333</v>
       </c>
       <c r="E3" t="n">
-        <v>17.96724533333333</v>
+        <v>94.79338799999999</v>
       </c>
       <c r="F3" t="n">
-        <v>94.79338799999999</v>
+        <v>0.00050097448</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.1442204915802</v>
+        <v>78.08035333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>78.08035333333333</v>
+        <v>61.672334</v>
       </c>
       <c r="F4" t="n">
-        <v>61.672334</v>
+        <v>0.0021770875</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.0562056882319</v>
+        <v>77.76054666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>77.76054666666667</v>
+        <v>57.456901</v>
       </c>
       <c r="F5" t="n">
-        <v>57.456901</v>
+        <v>0.0021681703</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.02810274430597</v>
+        <v>38.88027266666667</v>
       </c>
       <c r="E6" t="n">
-        <v>38.88027266666667</v>
+        <v>28.728451</v>
       </c>
       <c r="F6" t="n">
-        <v>28.728451</v>
+        <v>0.0010840852</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7927796648453499</v>
+        <v>0.9454963333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9454963333333333</v>
+        <v>4.7459387</v>
       </c>
       <c r="F7" t="n">
-        <v>4.7459387</v>
+        <v>2.6362947e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.68590297785847</v>
+        <v>0.62467408</v>
       </c>
       <c r="E8" t="n">
-        <v>0.62467408</v>
+        <v>0.076579014</v>
       </c>
       <c r="F8" t="n">
-        <v>0.076579014</v>
+        <v>1.7417571e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.12715807198632</v>
+        <v>0.6295541800000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6295541800000001</v>
+        <v>9.797962999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>9.797962999999999</v>
+        <v>1.7553641e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0103074514208534</v>
+        <v>0.04100911</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04100911</v>
+        <v>0.61208713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.61208713</v>
+        <v>1.1434428e-06</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.15538020283996</v>
+        <v>0.1958572333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1958572333333333</v>
+        <v>14.0023</v>
       </c>
       <c r="F11" t="n">
-        <v>14.0023</v>
+        <v>5.4610193e-06</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.5704676325215</v>
+        <v>5.9301754</v>
       </c>
       <c r="E12" t="n">
-        <v>5.9301754</v>
+        <v>7.357908</v>
       </c>
       <c r="F12" t="n">
-        <v>7.357908</v>
+        <v>0.00016534903</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.10826455348192</v>
+        <v>0.4845040333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4845040333333334</v>
+        <v>5.777495</v>
       </c>
       <c r="F13" t="n">
-        <v>5.777495</v>
+        <v>1.3509258e-05</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.6351875976628</v>
+        <v>6.1755812</v>
       </c>
       <c r="E14" t="n">
-        <v>6.1755812</v>
+        <v>7.7350208</v>
       </c>
       <c r="F14" t="n">
-        <v>7.7350208</v>
+        <v>0.00017219159</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.11345632067527</v>
+        <v>0.5082077733333333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5082077733333333</v>
+        <v>6.0901523</v>
       </c>
       <c r="F15" t="n">
-        <v>6.0901523</v>
+        <v>1.4170181e-05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5103564853215</v>
+        <v>5.6716498</v>
       </c>
       <c r="E16" t="n">
-        <v>5.6716498</v>
+        <v>5.1293553</v>
       </c>
       <c r="F16" t="n">
-        <v>5.1293553</v>
+        <v>0.00015814065</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.07727811205070001</v>
+        <v>0.3344457866666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3344457866666667</v>
+        <v>3.5803134</v>
       </c>
       <c r="F17" t="n">
-        <v>3.5803134</v>
+        <v>9.325236e-06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.5715394850007</v>
+        <v>5.9342228</v>
       </c>
       <c r="E18" t="n">
-        <v>5.9342228</v>
+        <v>7.3629298</v>
       </c>
       <c r="F18" t="n">
-        <v>7.3629298</v>
+        <v>0.00016546188</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.10833633301938</v>
+        <v>0.48482526</v>
       </c>
       <c r="E19" t="n">
-        <v>0.48482526</v>
+        <v>5.7813255</v>
       </c>
       <c r="F19" t="n">
-        <v>5.7813255</v>
+        <v>1.3518215e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8146203856003</v>
+        <v>1.024658933333333</v>
       </c>
       <c r="E20" t="n">
-        <v>1.024658933333333</v>
+        <v>44.799972</v>
       </c>
       <c r="F20" t="n">
-        <v>44.799972</v>
+        <v>2.8570209e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.4810164524455999</v>
+        <v>0.6063227333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6063227333333333</v>
+        <v>43.347457</v>
       </c>
       <c r="F21" t="n">
-        <v>43.347457</v>
+        <v>1.6905887e-05</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.6506525555161</v>
+        <v>6.230734733333334</v>
       </c>
       <c r="E22" t="n">
-        <v>6.230734733333334</v>
+        <v>47.51778</v>
       </c>
       <c r="F22" t="n">
-        <v>47.51778</v>
+        <v>0.00017372942</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1264633647795</v>
+        <v>0.5544217733333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5544217733333333</v>
+        <v>45.755538</v>
       </c>
       <c r="F23" t="n">
-        <v>45.755538</v>
+        <v>1.545875e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9622376351759</v>
+        <v>0.2861317733333333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2861317733333333</v>
+        <v>5.006887</v>
       </c>
       <c r="F24" t="n">
-        <v>5.006887</v>
+        <v>7.978113e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.892613553586</v>
+        <v>0.3797528866666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3797528866666667</v>
+        <v>6.5702766</v>
       </c>
       <c r="F25" t="n">
-        <v>6.5702766</v>
+        <v>1.0588518e-05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.00196732404</v>
+        <v>0.7626977333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7626977333333333</v>
+        <v>13.23279</v>
       </c>
       <c r="F26" t="n">
-        <v>13.23279</v>
+        <v>2.1266037e-05</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.035774874214</v>
+        <v>0.6614259133333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6614259133333333</v>
+        <v>10.375364</v>
       </c>
       <c r="F27" t="n">
-        <v>10.375364</v>
+        <v>1.8442309e-05</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.035873851273</v>
+        <v>1.101339266666667</v>
       </c>
       <c r="E28" t="n">
-        <v>1.101339266666667</v>
+        <v>16.886421</v>
       </c>
       <c r="F28" t="n">
-        <v>16.886421</v>
+        <v>3.070826e-05</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.055150118498</v>
+        <v>1.000428</v>
       </c>
       <c r="E29" t="n">
-        <v>1.000428</v>
+        <v>15.678095</v>
       </c>
       <c r="F29" t="n">
-        <v>15.678095</v>
+        <v>2.7894588e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.110148520444</v>
+        <v>1.313870133333333</v>
       </c>
       <c r="E30" t="n">
-        <v>1.313870133333333</v>
+        <v>21.129109</v>
       </c>
       <c r="F30" t="n">
-        <v>21.129109</v>
+        <v>3.6634185e-05</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.196365890974</v>
+        <v>0.9622026666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9622026666666667</v>
+        <v>4.0090185</v>
       </c>
       <c r="F31" t="n">
-        <v>4.0090185</v>
+        <v>2.6828763e-05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.290638091974</v>
+        <v>0.9622026666666667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9622026666666667</v>
+        <v>4.0090185</v>
       </c>
       <c r="F32" t="n">
-        <v>4.0090185</v>
+        <v>2.6828763e-05</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.241024618974</v>
+        <v>0.9622026666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9622026666666667</v>
+        <v>4.0090185</v>
       </c>
       <c r="F33" t="n">
-        <v>4.0090185</v>
+        <v>2.6828763e-05</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.691719331974</v>
+        <v>0.9622026666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9622026666666667</v>
+        <v>4.0090185</v>
       </c>
       <c r="F34" t="n">
-        <v>4.0090185</v>
+        <v>2.6828763e-05</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.257499083974</v>
+        <v>0.9622026666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9622026666666667</v>
+        <v>4.0090185</v>
       </c>
       <c r="F35" t="n">
-        <v>4.0090185</v>
+        <v>2.6828763e-05</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.284110158739</v>
+        <v>0.3303198333333334</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3303198333333334</v>
+        <v>5.2297336</v>
       </c>
       <c r="F36" t="n">
-        <v>5.2297336</v>
+        <v>9.210193299999999e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3207997887390001</v>
+        <v>0.3303198333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3303198333333334</v>
+        <v>5.2297336</v>
       </c>
       <c r="F37" t="n">
-        <v>5.2297336</v>
+        <v>9.210193299999999e-06</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.236265878813</v>
+        <v>0.9423973333333334</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9423973333333334</v>
+        <v>14.686937</v>
       </c>
       <c r="F38" t="n">
-        <v>14.686937</v>
+        <v>2.6276539e-05</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.3804998321204</v>
+        <v>1.377814533333333</v>
       </c>
       <c r="E39" t="n">
-        <v>1.377814533333333</v>
+        <v>10.828352</v>
       </c>
       <c r="F39" t="n">
-        <v>10.828352</v>
+        <v>3.8417125e-05</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1650,5 +1695,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>